--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Rspo2-Lgr5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Rspo2-Lgr5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,19 +79,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Rspo2</t>
+  </si>
+  <si>
+    <t>Lgr5</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
-    <t>Rspo2</t>
-  </si>
-  <si>
-    <t>Lgr5</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
+    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,13 +522,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>24</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -543,40 +543,40 @@
         <v>4.580553</v>
       </c>
       <c r="I2">
-        <v>0.9910541119453039</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.9910541119453039</v>
+        <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.1399036666666666</v>
+        <v>0.4220680000000001</v>
       </c>
       <c r="N2">
-        <v>0.4197109999999999</v>
+        <v>1.266204</v>
       </c>
       <c r="O2">
-        <v>0.02821562274959919</v>
+        <v>0.06297272914451456</v>
       </c>
       <c r="P2">
-        <v>0.02821562274959919</v>
+        <v>0.06297272914451456</v>
       </c>
       <c r="Q2">
-        <v>0.2136120533536666</v>
+        <v>0.644434947868</v>
       </c>
       <c r="R2">
-        <v>1.922508480183</v>
+        <v>5.799914530812001</v>
       </c>
       <c r="S2">
-        <v>0.02796320894708774</v>
+        <v>0.06297272914451456</v>
       </c>
       <c r="T2">
-        <v>0.02796320894708774</v>
+        <v>0.06297272914451456</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -605,10 +605,10 @@
         <v>4.580553</v>
       </c>
       <c r="I3">
-        <v>0.9910541119453039</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.9910541119453039</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,10 +623,10 @@
         <v>7.336805</v>
       </c>
       <c r="O3">
-        <v>0.4932263440018803</v>
+        <v>0.3648848321843242</v>
       </c>
       <c r="P3">
-        <v>0.4932263440018802</v>
+        <v>0.3648848321843242</v>
       </c>
       <c r="Q3">
         <v>3.734069350351667</v>
@@ -635,10 +635,10 @@
         <v>33.606624153165</v>
       </c>
       <c r="S3">
-        <v>0.4888139963428124</v>
+        <v>0.3648848321843242</v>
       </c>
       <c r="T3">
-        <v>0.4888139963428124</v>
+        <v>0.3648848321843242</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,13 +646,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -667,40 +667,40 @@
         <v>4.580553</v>
       </c>
       <c r="I4">
-        <v>0.9910541119453039</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.9910541119453039</v>
+        <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.02060433333333333</v>
+        <v>3.729698666666666</v>
       </c>
       <c r="N4">
-        <v>0.061813</v>
+        <v>11.189096</v>
       </c>
       <c r="O4">
-        <v>0.004155460040411081</v>
+        <v>0.5564726629989883</v>
       </c>
       <c r="P4">
-        <v>0.00415546004041108</v>
+        <v>0.5564726629989883</v>
       </c>
       <c r="Q4">
-        <v>0.03145974695433333</v>
+        <v>5.694694138898666</v>
       </c>
       <c r="R4">
-        <v>0.283137722589</v>
+        <v>51.252247250088</v>
       </c>
       <c r="S4">
-        <v>0.004118285760073801</v>
+        <v>0.5564726629989883</v>
       </c>
       <c r="T4">
-        <v>0.0041182857600738</v>
+        <v>0.5564726629989883</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,13 +708,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,288 +729,40 @@
         <v>4.580553</v>
       </c>
       <c r="I5">
-        <v>0.9910541119453039</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0.9910541119453039</v>
+        <v>1</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>2.352266333333333</v>
+        <v>0.105025</v>
       </c>
       <c r="N5">
-        <v>7.056799</v>
+        <v>0.315075</v>
       </c>
       <c r="O5">
-        <v>0.4744025732081095</v>
+        <v>0.01566977567217282</v>
       </c>
       <c r="P5">
-        <v>0.4744025732081095</v>
+        <v>0.01566977567217282</v>
       </c>
       <c r="Q5">
-        <v>3.591560203316333</v>
+        <v>0.160357526275</v>
       </c>
       <c r="R5">
-        <v>32.324041829847</v>
+        <v>1.443217736475</v>
       </c>
       <c r="S5">
-        <v>0.47015862089533</v>
+        <v>0.01566977567217282</v>
       </c>
       <c r="T5">
-        <v>0.47015862089533</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G6">
-        <v>0.01378233333333333</v>
-      </c>
-      <c r="H6">
-        <v>0.041347</v>
-      </c>
-      <c r="I6">
-        <v>0.008945888054696122</v>
-      </c>
-      <c r="J6">
-        <v>0.00894588805469612</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M6">
-        <v>0.1399036666666666</v>
-      </c>
-      <c r="N6">
-        <v>0.4197109999999999</v>
-      </c>
-      <c r="O6">
-        <v>0.02821562274959919</v>
-      </c>
-      <c r="P6">
-        <v>0.02821562274959919</v>
-      </c>
-      <c r="Q6">
-        <v>0.001928198968555555</v>
-      </c>
-      <c r="R6">
-        <v>0.017353790717</v>
-      </c>
-      <c r="S6">
-        <v>0.0002524138025114515</v>
-      </c>
-      <c r="T6">
-        <v>0.0002524138025114515</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G7">
-        <v>0.01378233333333333</v>
-      </c>
-      <c r="H7">
-        <v>0.041347</v>
-      </c>
-      <c r="I7">
-        <v>0.008945888054696122</v>
-      </c>
-      <c r="J7">
-        <v>0.00894588805469612</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>2.445601666666667</v>
-      </c>
-      <c r="N7">
-        <v>7.336805</v>
-      </c>
-      <c r="O7">
-        <v>0.4932263440018803</v>
-      </c>
-      <c r="P7">
-        <v>0.4932263440018802</v>
-      </c>
-      <c r="Q7">
-        <v>0.03370609737055556</v>
-      </c>
-      <c r="R7">
-        <v>0.303354876335</v>
-      </c>
-      <c r="S7">
-        <v>0.004412347659067861</v>
-      </c>
-      <c r="T7">
-        <v>0.004412347659067859</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G8">
-        <v>0.01378233333333333</v>
-      </c>
-      <c r="H8">
-        <v>0.041347</v>
-      </c>
-      <c r="I8">
-        <v>0.008945888054696122</v>
-      </c>
-      <c r="J8">
-        <v>0.00894588805469612</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M8">
-        <v>0.02060433333333333</v>
-      </c>
-      <c r="N8">
-        <v>0.061813</v>
-      </c>
-      <c r="O8">
-        <v>0.004155460040411081</v>
-      </c>
-      <c r="P8">
-        <v>0.00415546004041108</v>
-      </c>
-      <c r="Q8">
-        <v>0.0002839757901111111</v>
-      </c>
-      <c r="R8">
-        <v>0.002555782111</v>
-      </c>
-      <c r="S8">
-        <v>3.717428033728056E-05</v>
-      </c>
-      <c r="T8">
-        <v>3.717428033728054E-05</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.01378233333333333</v>
-      </c>
-      <c r="H9">
-        <v>0.041347</v>
-      </c>
-      <c r="I9">
-        <v>0.008945888054696122</v>
-      </c>
-      <c r="J9">
-        <v>0.00894588805469612</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>2.352266333333333</v>
-      </c>
-      <c r="N9">
-        <v>7.056799</v>
-      </c>
-      <c r="O9">
-        <v>0.4744025732081095</v>
-      </c>
-      <c r="P9">
-        <v>0.4744025732081095</v>
-      </c>
-      <c r="Q9">
-        <v>0.03241971869477778</v>
-      </c>
-      <c r="R9">
-        <v>0.291777468253</v>
-      </c>
-      <c r="S9">
-        <v>0.004243952312779529</v>
-      </c>
-      <c r="T9">
-        <v>0.004243952312779528</v>
+        <v>0.01566977567217282</v>
       </c>
     </row>
   </sheetData>
